--- a/atomica/library/hiv_framework.xlsx
+++ b/atomica/library/hiv_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D883B420-7CEC-4B3F-8A18-A31CE2928F9A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F5C26-A88A-4643-AA36-823DA8C9C1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -791,9 +797,6 @@
     <t>Diagnosis rate</t>
   </si>
   <si>
-    <t>probability</t>
-  </si>
-  <si>
     <t>num_diag/max(undx,num_diag)</t>
   </si>
   <si>
@@ -831,6 +834,9 @@
   </si>
   <si>
     <t>Constituents</t>
+  </si>
+  <si>
+    <t>rate</t>
   </si>
 </sst>
 </file>
@@ -922,9 +928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -962,9 +968,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,26 +1003,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1049,26 +1038,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1244,17 +1216,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="97.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1264,7 +1236,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1274,22 +1246,22 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1305,7 +1277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1321,7 +1293,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +1301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1350,13 +1322,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1364,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -1372,7 +1344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -1380,35 +1352,35 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
@@ -1426,17 +1398,17 @@
       <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1456,7 +1428,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -1474,7 +1446,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1492,7 +1464,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1482,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
@@ -1528,7 +1500,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1518,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
@@ -1583,9 +1555,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1611,7 +1583,7 @@
         <v>vs</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1620,7 +1592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>dx</v>
@@ -1629,7 +1601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>linked</v>
@@ -1641,7 +1613,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>Compartments!$A$5</f>
         <v>tx</v>
@@ -1653,7 +1625,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="str">
         <f>Compartments!$A$6</f>
         <v>lost</v>
@@ -1662,7 +1634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="str">
         <f>Compartments!$A$7</f>
         <v>vs</v>
@@ -1687,16 +1659,16 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
@@ -1730,7 +1702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1747,7 +1719,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
@@ -1764,7 +1736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
@@ -1781,7 +1753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -1798,7 +1770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
@@ -1815,26 +1787,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" s="4"/>
     </row>
   </sheetData>
@@ -1847,24 +1819,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1865,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -1916,7 +1888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
@@ -1924,32 +1896,30 @@
         <v>78</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
@@ -1958,18 +1928,18 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>77</v>
@@ -1987,65 +1957,61 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4">
         <v>0.2</v>
@@ -2062,15 +2028,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4">
         <v>0.16</v>
@@ -2078,18 +2044,16 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2099,7 +2063,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2109,7 +2073,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2119,7 +2083,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2129,7 +2093,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2139,7 +2103,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2149,7 +2113,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2159,28 +2123,31 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18 C2:C19" xr:uid="{00000000-0002-0000-0500-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18 C10:C19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H2:H19" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"y,n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{4EAA1A8F-2834-F944-AE23-5C5A558A4509}">
+      <formula1>",number,probability,duration,proportion, rate"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,21 +2164,21 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>53</v>
       </c>
@@ -2219,7 +2186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>56</v>
       </c>
@@ -2227,7 +2194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -2235,7 +2202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -2246,7 +2213,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -2257,7 +2224,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -2268,17 +2235,17 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
